--- a/ESERCIZIO_M2-1-2_dati.xlsx
+++ b/ESERCIZIO_M2-1-2_dati.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/043d97dbf498b1a1/Desktop/Epicode/Week 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/043d97dbf498b1a1/Desktop/Consegne/Week-1-D1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C7331174-BC5C-460A-80CA-22CF1C9ACDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51268845-2A6B-42C3-9F98-EEE917C51E00}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C7331174-BC5C-460A-80CA-22CF1C9ACDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{628C19AC-5A5D-4EB8-834C-2D155D10A7E7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,7 +797,7 @@
   <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
